--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-7746_CircularDependencySpreadsheet.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-7746_CircularDependencySpreadsheet.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="12585" windowWidth="27795" xWindow="480" yWindow="120"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Step</t>
   </si>
@@ -27,45 +25,12 @@
     <t>Step1</t>
   </si>
   <si>
-    <t>=a + b</t>
-  </si>
-  <si>
-    <t>=a*b</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult firstTable(int a, SpreadsheetResult secondTable)</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult secondTable(SpreadsheetResult firstTable)</t>
-  </si>
-  <si>
-    <t>=a - b</t>
-  </si>
-  <si>
-    <t>=a</t>
-  </si>
-  <si>
-    <t>=a *2</t>
-  </si>
-  <si>
-    <t>firstTable</t>
-  </si>
-  <si>
     <t>Step2</t>
   </si>
   <si>
-    <t>Spreadsheet SpreadsheetResult secondTable(int b, SpreadsheetResult firstTable)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>=b</t>
   </si>
   <si>
-    <t xsi:nil="true"/>
-  </si>
-  <si>
     <t>=firstTable(2)</t>
   </si>
   <si>
@@ -73,15 +38,6 @@
   </si>
   <si>
     <t>Spreadsheet SpreadsheetResult firstTable(int a)</t>
-  </si>
-  <si>
-    <t>=secondTable(3)</t>
-  </si>
-  <si>
-    <t>'=secondTable(3)</t>
-  </si>
-  <si>
-    <t>=secondTable(3)</t>
   </si>
   <si>
     <t>Formala</t>
@@ -94,14 +50,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="000000" theme="1"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,32 +61,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="000000" theme="1"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Palatino Linotype"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,19 +91,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Currency 2" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Currency 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -180,10 +122,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -341,7 +283,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -350,13 +292,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -366,7 +308,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -375,7 +317,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -384,7 +326,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -394,12 +336,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -430,7 +372,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -449,7 +391,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -461,89 +403,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="2" max="3" width="27.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="J7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <mergeCells count="2">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B10:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>